--- a/dcycl/analysis/Simulator/Output Excel/Distance Between Car And Cyclist.xlsx
+++ b/dcycl/analysis/Simulator/Output Excel/Distance Between Car And Cyclist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapie\Creative Cloud Files\TUe\M1.2\cyclist-distance-crowdsourced\dcycl\analysis\Simulator\Output Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DBDAF90-6A58-47DE-B28C-F9CA2953EDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD99C0E-D9E9-48DB-A4B9-B1B309206A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11250" yWindow="0" windowWidth="11250" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -984,7 +984,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,15 +1013,161 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="96">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -1180,10 +1326,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:AX21" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:AX22" totalsRowCount="1">
   <autoFilter ref="A1:AX21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="50">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="47">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="95" totalsRowDxfId="47">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="id"/>
@@ -1204,329 +1350,338 @@
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="46">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="94" totalsRowDxfId="46">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="responder"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="45">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="93" totalsRowDxfId="45">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="responderName"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Partcipant number" dataDxfId="44">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Partcipant number" dataDxfId="92" totalsRowDxfId="44">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r5ee4ee44f2a7458fbf490f608ffb0007"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Do you consent to participate in this study in the way that is described in the information shown above?" dataDxfId="43">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Do you consent to participate in this study in the way that is described in the information shown above?" dataDxfId="91" totalsRowDxfId="43">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r6c9dc07d75204a0287c98ca4bf96f23f"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Have you read and understood the above instructions?" dataDxfId="42">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Have you read and understood the above instructions?" dataDxfId="90" totalsRowDxfId="42">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r6ad53cef2c4a4d4293e2d7189d47d869"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="What is your gender?" dataDxfId="41">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="What is your gender?" dataDxfId="89" totalsRowDxfId="41">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r7939d603838242d9a7ffde76dadc74de"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="What is your age?" dataDxfId="40">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="What is your age?" dataDxfId="88" totalsRowDxfId="40">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r86af1695269348f195cbeacb2c9e985b"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="What is the highest level of education you have completed?" dataDxfId="39">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="What is the highest level of education you have completed?" dataDxfId="87" totalsRowDxfId="39">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rff99481cffce47cdba23256f0f3bb3fc"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="At which age did you obtain your first license for driving a car?_x000a_" dataDxfId="38">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="At which age did you obtain your first license for driving a car?_x000a_" dataDxfId="86" totalsRowDxfId="38">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r89fe7799d0ef41bd97aae61ee4a6f3e1"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Do you hold a valid driver's license?" dataDxfId="37">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Do you hold a valid driver's license?" dataDxfId="85" totalsRowDxfId="37">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rc6a9f02a049641738ba111511ed550d9"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="From which country is the driving license issued?" dataDxfId="36">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="From which country is the driving license issued?" dataDxfId="84" totalsRowDxfId="36">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r4a9d98c1cff246fc96ab1c9e1f240139"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="On average, how often did you drive a car in the last 12 months?" dataDxfId="35">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="On average, how often did you drive a car in the last 12 months?" dataDxfId="83" totalsRowDxfId="35">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r6d554cef4ec947118e3e8aa59935f33a"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="About how many kilometers (miles) did you drive in the last 12 months?" dataDxfId="34">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="About how many kilometers (miles) did you drive in the last 12 months?" dataDxfId="82" totalsRowDxfId="34">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rede90be629a74d21a12a32d734e48b6b"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="While driving, have you ever encountered a traffic situation, where you were required to overtake a cyclist?" dataDxfId="33">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="While driving, have you ever encountered a traffic situation, where you were required to overtake a cyclist?" dataDxfId="81" totalsRowDxfId="33">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r24c2b416b6b6465c90c9546ee8b72037"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="When overtaking a cyclist, how do you determine a safe distance?" dataDxfId="32">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="When overtaking a cyclist, how do you determine a safe distance?" dataDxfId="80" totalsRowDxfId="32">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r4b9e300d4772440fbaf028a2217f9448"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="What factors influence your decision on how much space to leave when overtaking a cyclist (e.g., road width, speed, traffic conditions)?" dataDxfId="31">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="What factors influence your decision on how much space to leave when overtaking a cyclist (e.g., road width, speed, traffic conditions)?" dataDxfId="79" totalsRowDxfId="31">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r36876b5b00c34178a041806443b6b412"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Are you aware of any laws or guidelines in your country or within the EU that specify the minimum distance a car should maintain when overtaking a cyclist?" dataDxfId="30">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Are you aware of any laws or guidelines in your country or within the EU that specify the minimum distance a car should maintain when overtaking a cyclist?" dataDxfId="78" totalsRowDxfId="30">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rbe89b4b2d2c74ab2a0099ac0cf51e743"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Please provide an estimate of what you believe the minimum distance for overtaking a cyclist should be (in metres)?" dataDxfId="29">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Please provide an estimate of what you believe the minimum distance for overtaking a cyclist should be (in metres)?" dataDxfId="77" totalsRowDxfId="29">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r280725aa9d2746b1bbd818554571c178"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Do you think the current laws or guidelines are sufficient to ensure cyclists' safety? Why or why not?" dataDxfId="28">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Do you think the current laws or guidelines are sufficient to ensure cyclists' safety? Why or why not?" dataDxfId="76" totalsRowDxfId="28">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r5507e9e5a4614c2a889a9da61a8b7a5d"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="What challenges have you encountered when trying to maintain a safe distance from cyclists while driving?" dataDxfId="27">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="What challenges have you encountered when trying to maintain a safe distance from cyclists while driving?" dataDxfId="75" totalsRowDxfId="27">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rdabb8d7d5f2a4aa59e73dc094739b9ff"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Have you ever felt pressured by other drivers or traffic conditions to overtake a cyclist more closely than you would prefer?" dataDxfId="26">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Have you ever felt pressured by other drivers or traffic conditions to overtake a cyclist more closely than you would prefer?" dataDxfId="74" totalsRowDxfId="26">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rc466ff4fec8d4601918702b56ad3f2c3"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="How do you feel about sharing the road with cyclists? Do you think there should be more infrastructure dedicated to cyclists, such as cycling lanes?" dataDxfId="25">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="How do you feel about sharing the road with cyclists? Do you think there should be more infrastructure dedicated to cyclists, such as cycling lanes?" dataDxfId="73" totalsRowDxfId="25">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="ref580109df264af8b9c67dd7ce451a16"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="What, if anything, would encourage you to consistently maintain a safe distance when overtaking cyclists? (e.g., stricter laws, better infrastructure, personal experiences)" dataDxfId="24">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="What, if anything, would encourage you to consistently maintain a safe distance when overtaking cyclists? (e.g., stricter laws, better infrastructure, personal experiences)" dataDxfId="72" totalsRowDxfId="24">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rb8d95fd5e2d049d8b851f74395168481"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="On average, how often did you ride a bicycle in the last 12 months?" dataDxfId="23">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="On average, how often did you ride a bicycle in the last 12 months?" dataDxfId="71" totalsRowDxfId="23">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r3d3b3ad87b574ae6b4ba83ad27889ab6"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="As a cyclist, what are your biggest concerns when vehicles overtake you on the road?_x000a_" dataDxfId="22">
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="As a cyclist, what are your biggest concerns when vehicles overtake you on the road?_x000a_" dataDxfId="70" totalsRowDxfId="22">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r4293a997b76f4d11b786e9a70b864089"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Have you ever had a near accident or an accident due to a vehicle overtaking you too close? How did that experience impact your sense of safety while cycling?" dataDxfId="21">
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Have you ever had a near accident or an accident due to a vehicle overtaking you too close? How did that experience impact your sense of safety while cycling?" dataDxfId="69" totalsRowDxfId="21">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r956dcc6dc069404387e526a33334fae4"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Do you change your behaviour when driving in areas with many cyclist? If so, how?_x000a_" dataDxfId="20">
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Do you change your behaviour when driving in areas with many cyclist? If so, how?_x000a_" dataDxfId="68" totalsRowDxfId="20">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rd4e5371c4572486dada45362992ac27a"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="If you cycle, do you alter your route or timing to avoid areas where drivers tend to pass too closely?" dataDxfId="19">
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="If you cycle, do you alter your route or timing to avoid areas where drivers tend to pass too closely?" dataDxfId="67" totalsRowDxfId="19">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rf34b1114d9894e54acd7b7aa6ee477bc"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate." dataDxfId="18">
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate." dataDxfId="66" totalsRowDxfId="18">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="ra4be8e279af5423aa798885a5c204fc6"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meter .The distance between the car and the bicycle was approximately in..." dataDxfId="17">
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meter .The distance between the car and the bicycle was approximately in..." totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="17">
+      <totalsRowFormula>AVERAGE(OfficeForms.Table[Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meter .The distance between the car and the bicycle was approximately in...])</totalsRowFormula>
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r78848c8daccb443d8da8e6453550c786"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate.1" dataDxfId="16">
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate.1" dataDxfId="64" totalsRowDxfId="16">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rf9dfdfb24ee0482eb7d379b1d29be9b0"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ...." dataDxfId="15">
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ...." totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="15">
+      <totalsRowFormula>AVERAGE(OfficeForms.Table[Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....])</totalsRowFormula>
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r2b457743407248d5a88ab75af4cee3b1"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate.2" dataDxfId="14">
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate.2" dataDxfId="62" totalsRowDxfId="14">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r38dfe39a043c44858d16c0a5c01d642b"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....1" dataDxfId="13">
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....1" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="13">
+      <totalsRowFormula>AVERAGE(OfficeForms.Table[Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....1])</totalsRowFormula>
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="re0a0f03dd7664c01a4978a9f1d2ca616"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate.3" dataDxfId="12">
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate.3" dataDxfId="60" totalsRowDxfId="12">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rad6e6ff983fd4afa9885a54eb8d1b60c"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....2" dataDxfId="11">
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....2" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="11">
+      <totalsRowFormula>AVERAGE(OfficeForms.Table[Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....2])</totalsRowFormula>
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rdee312814d0c472db51db960aa40d5b2"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate.4" dataDxfId="10">
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate.4" dataDxfId="58" totalsRowDxfId="10">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r62cff402a1bd417f86ab533179acf770"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....3" dataDxfId="9">
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....3" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="9">
+      <totalsRowFormula>AVERAGE(OfficeForms.Table[Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....3])</totalsRowFormula>
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r4de68e90a4ac474d8e6d87b19f4abc85"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate.5" dataDxfId="8">
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate.5" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="8">
+      <totalsRowFormula>AVERAGE(OfficeForms.Table[To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate.5])</totalsRowFormula>
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r86071ac2b70c4c5dbe26d2eceb415ee5"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....4" dataDxfId="7">
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....4" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="7">
+      <totalsRowFormula>AVERAGE(OfficeForms.Table[Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....4])</totalsRowFormula>
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r36775923d83f43f6abaaf5a9a08b88f3"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate.6" dataDxfId="6">
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate.6" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="6">
+      <totalsRowFormula>AVERAGE(OfficeForms.Table[To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate.6])</totalsRowFormula>
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r8e43e82d91284d808b115919af7a3f2f"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....5" dataDxfId="5">
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....5" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="5">
+      <totalsRowFormula>AVERAGE(OfficeForms.Table[Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....5])</totalsRowFormula>
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r32db4076c3c94ca69696885202a2caed"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Question.After experiencing the videos in the experiment, I will change my attitude towards maintaining a safe overtaking distance from cyclists" dataDxfId="4">
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Question.After experiencing the videos in the experiment, I will change my attitude towards maintaining a safe overtaking distance from cyclists" dataDxfId="52" totalsRowDxfId="4">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r8c83ede67e424ac68b0baacaf23bc8de"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Question. I support the introduction of the technology used in the scenarios on real roads." dataDxfId="3">
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Question. I support the introduction of the technology used in the scenarios on real roads." dataDxfId="51" totalsRowDxfId="3">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rbc26e95adeef4fcd815d92a020b3a6f4"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Which of the seven scenarios, featuring various technologies such as road markings or laser projections, was most helpful in accurately determining the distance between the car and the cyclist?" dataDxfId="2">
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Which of the seven scenarios, featuring various technologies such as road markings or laser projections, was most helpful in accurately determining the distance between the car and the cyclist?" dataDxfId="50" totalsRowDxfId="2">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r02a36a6298414c629848a7d452fd599f"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Elaborate on why this scenario was helpful in the text box below." dataDxfId="1">
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Elaborate on why this scenario was helpful in the text box below." dataDxfId="49" totalsRowDxfId="1">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r2e7eea1c6dbc4898806c07c8d3f08539"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Any remarks?" dataDxfId="0">
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Any remarks?" dataDxfId="48" totalsRowDxfId="0">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r66b307ff46964d1786c7db63a5172595"/>
@@ -1891,18 +2046,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX21"/>
+  <dimension ref="A1:AX22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AO35" sqref="AO35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="50" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2209,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2203,7 +2358,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>4</v>
       </c>
@@ -2352,7 +2507,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>5</v>
       </c>
@@ -2501,7 +2656,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>6</v>
       </c>
@@ -2650,7 +2805,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>7</v>
       </c>
@@ -2802,7 +2957,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>8</v>
       </c>
@@ -2954,7 +3109,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>9</v>
       </c>
@@ -3103,7 +3258,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>10</v>
       </c>
@@ -3255,7 +3410,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>11</v>
       </c>
@@ -3404,7 +3559,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>12</v>
       </c>
@@ -3553,7 +3708,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>13</v>
       </c>
@@ -3702,7 +3857,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>14</v>
       </c>
@@ -3854,7 +4009,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>15</v>
       </c>
@@ -4003,7 +4158,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>16</v>
       </c>
@@ -4152,7 +4307,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>17</v>
       </c>
@@ -4304,7 +4459,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>18</v>
       </c>
@@ -4456,7 +4611,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>19</v>
       </c>
@@ -4608,7 +4763,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>20</v>
       </c>
@@ -4757,7 +4912,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>21</v>
       </c>
@@ -4909,7 +5064,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>22</v>
       </c>
@@ -5057,6 +5212,83 @@
       <c r="AW21" t="s">
         <v>312</v>
       </c>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="3">
+        <f>AVERAGE(OfficeForms.Table[Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meter .The distance between the car and the bicycle was approximately in...])</f>
+        <v>1.9049999999999998</v>
+      </c>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3">
+        <f>AVERAGE(OfficeForms.Table[Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....])</f>
+        <v>1.8099999999999998</v>
+      </c>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3">
+        <f>AVERAGE(OfficeForms.Table[Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....1])</f>
+        <v>1.7899999999999998</v>
+      </c>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3">
+        <f>AVERAGE(OfficeForms.Table[Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....2])</f>
+        <v>1.9424999999999997</v>
+      </c>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3">
+        <f>AVERAGE(OfficeForms.Table[Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....3])</f>
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="AP22" s="3" t="e">
+        <f>AVERAGE(OfficeForms.Table[To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate.5])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ22" s="3">
+        <f>AVERAGE(OfficeForms.Table[Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....4])</f>
+        <v>1.5375000000000001</v>
+      </c>
+      <c r="AR22" s="3" t="e">
+        <f>AVERAGE(OfficeForms.Table[To what extent do you agree with the following statement:.The space between the car and the bicycle during the overtaking manoeuvre was adequate.6])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS22" s="3">
+        <f>AVERAGE(OfficeForms.Table[Could you Estimate the lateral distance between the car and the bicycle during the overtaking manoeuvre. Give your answer in meters. The distance between the car and the bicycle was approximately ....5])</f>
+        <v>1.6975000000000002</v>
+      </c>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
